--- a/biology/Médecine/Leucémie_aigüe_myéloïde/Leucémie_aigüe_myéloïde.xlsx
+++ b/biology/Médecine/Leucémie_aigüe_myéloïde/Leucémie_aigüe_myéloïde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Leuc%C3%A9mie_aig%C3%BCe_my%C3%A9lo%C3%AFde</t>
+          <t>Leucémie_aigüe_myéloïde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La leucémie aigüe myéloïde (LAM), aussi appelée leucémie aigüe myéloblastique, est un cancer de type hémopathie maligne affectant les cellules hématopoïétiques de la moelle osseuse. Les cellules leucémiques, appelées blastes, sont caractérisées par une incapacité à se différencier en cellules matures et par une prolifération incontrôlée[1]. Ce dysfonctionnement de la moelle osseuse empêche la production normale des cellules sanguines et se traduit par divers syndromes cliniques, parfois très graves (infection, hémorragie, etc.).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La leucémie aigüe myéloïde (LAM), aussi appelée leucémie aigüe myéloblastique, est un cancer de type hémopathie maligne affectant les cellules hématopoïétiques de la moelle osseuse. Les cellules leucémiques, appelées blastes, sont caractérisées par une incapacité à se différencier en cellules matures et par une prolifération incontrôlée. Ce dysfonctionnement de la moelle osseuse empêche la production normale des cellules sanguines et se traduit par divers syndromes cliniques, parfois très graves (infection, hémorragie, etc.).
 Les LAM surviennent classiquement chez l'adulte au-delà de 40 ans, en particulier chez le sujet âgé même si elles sont également recensées parmi les cancers pédiatriques.
 La prise en charge est assurée par des médecins hématologues, majoritairement en milieu hospitalier. Le diagnostic fait appel à la biologie moléculaire pour identifier notamment des mutations génétiques, ce qui permet de déterminer le sous-type de LAM.
-Ces éléments diagnostics entrent ensuite en ligne de compte pour établir le pronostic de la maladie avec d'autres éléments comme l'âge ou la réponse au traitement. L'association de la chimiothérapie intensive et de l'allogreffe de moelle osseuse permet d'obtenir des rémissions complètes et durables voire des guérisons chez environ 20 à 40 % des patients[2],[3].
+Ces éléments diagnostics entrent ensuite en ligne de compte pour établir le pronostic de la maladie avec d'autres éléments comme l'âge ou la réponse au traitement. L'association de la chimiothérapie intensive et de l'allogreffe de moelle osseuse permet d'obtenir des rémissions complètes et durables voire des guérisons chez environ 20 à 40 % des patients,.
 Domaine d'intérêt pour la recherche médicale, des progrès importants ont été accomplis au cours des années 2000 et 2010. L’avènement de nouvelles techniques performantes en hématologie cellulaire, en biologie moléculaire et en cytogénétique a donné accès à une meilleure compréhension des mécanismes impliqués dans le développement des LAM. L'identification de nouvelles cibles thérapeutiques permet de proposer des thérapies ciblées en alternative à la chimiothérapie cytotoxique. Ainsi, pour un sous-type particulier, la leucémie aigüe promyélocytaire, la chimiothérapie classique tend à ne plus être proposée en première ligne de traitement.
 </t>
         </is>
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Leuc%C3%A9mie_aig%C3%BCe_my%C3%A9lo%C3%AFde</t>
+          <t>Leucémie_aigüe_myéloïde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,11 +529,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Incidence
-Les LAM peuvent survenir à tout âge mais affectent surtout l'adulte après 50 ans. Durant la décennie 2010, l'âge médian de diagnostic était compris entre 64 et 72 ans selon les pays et les années.
-La population pédiatrique (0-19 ans) est peu affectée par les LAM : l'incidence est faible avec, en 2017, une incidence de 0,9 %[9]. Ces patients sont davantage touchés par un autre sous-type de leucémie : la leucémie aiguë lymphoblastique qui représente environ 80 % des cas de leucémie de l'enfant contre 20 % pour les LAM[10].
-Mortalité
-Le taux de mortalité standardisé sur l'âge lié aux LAM est estimé à 1,3 pour 100 000 personnes en 2017 par le Global Burden of Disease[11]. Pour la population pédiatrique (0 à 19 ans) il est plus faible à 0,4 pour 100 000 personnes.
+          <t>Incidence</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les LAM peuvent survenir à tout âge mais affectent surtout l'adulte après 50 ans. Durant la décennie 2010, l'âge médian de diagnostic était compris entre 64 et 72 ans selon les pays et les années.
+La population pédiatrique (0-19 ans) est peu affectée par les LAM : l'incidence est faible avec, en 2017, une incidence de 0,9 %. Ces patients sont davantage touchés par un autre sous-type de leucémie : la leucémie aiguë lymphoblastique qui représente environ 80 % des cas de leucémie de l'enfant contre 20 % pour les LAM.
 </t>
         </is>
       </c>
@@ -532,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Leuc%C3%A9mie_aig%C3%BCe_my%C3%A9lo%C3%AFde</t>
+          <t>Leucémie_aigüe_myéloïde</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,77 +562,460 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Épidémiologie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Mortalité</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le taux de mortalité standardisé sur l'âge lié aux LAM est estimé à 1,3 pour 100 000 personnes en 2017 par le Global Burden of Disease. Pour la population pédiatrique (0 à 19 ans) il est plus faible à 0,4 pour 100 000 personnes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Leucémie_aigüe_myéloïde</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leuc%C3%A9mie_aig%C3%BCe_my%C3%A9lo%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Pathogénie, causes, facteurs de risque</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pathogénie
-Les hémopathies malignes, dont les LAM font partie, peuvent être globalement caractérisées par deux attributs : la maturation et la prolifération. Dans les LAM, ces deux caractéristiques sont altérées : les blastes ont perdu leur capacité de différentiation en cellules sanguines matures (polynucléaires, monocytes, plaquettes, globule rouge) et la division cellulaire s'effectue sans contrôle avec une prolifération excessive. Cette maturation et prolifération défaillantes sont liées à un défaut dans le cycle cellulaire : généralement certains gènes chargés de contrôler ces fonctions ont subi des mutations qui perturbent le contrôle physiologique de la division des cellules. L'identification de ces altérations servent de base au diagnostic, à la classification et au traitement des LAM.
-Causes
-Les cancers et les leucémies n'ont pas de cause unique connue, mais leur développement est cependant associé à certains facteurs environnementaux et/ou anomalies génétiques. Le Centre international de recherche sur le cancer, une agence de l'OMS, est notamment chargé de l'évaluation et classification des agents physiques, chimiques et biologiques en fonction de leur effet cancérogène. Certains d'entre eux favorisent particulièrement l'apparition de leucémies dont les LAM[12],[13]. Globalement, toute exposition pouvant altérer, modifier ou dénaturer l'ADN des cellules est un facteur de risque. Cependant, des données épidémiologiques et des études des effets cellulaires sont nécessaires pour évaluer, avec un degré raisonnable de confiance, le risque présenté par une telle exposition.
-Rayonnements ionisants
-Les rayonnements ionisants sont des particules assez énergétiques pour casser les liaisons chimiques entre atomes et donc altérer les molécules. La découverte de la radioactivité et son utilisation croissante au cours du XXe siècle ont fait rapidement apparaître les risques de l'exposition aux radiations pour la santé. Le développement de la radiobiologie a par la suite permis d'établir que radiations provoquent des anomalies au niveau de l'ADN, et augmentent le risque de survenue de cancer et particulièrement de leucémies. Marie Curie et Irène Joliot-Curie sont ainsi décédées de leucémies probablement radio-induites du fait de leur travaux sur la radioactivité[14],[15].
-L'étude INWORKS, publiée dans le Lancet Haematology en 2015, portant sur une cohorte d'un peu plus de 300 000 travailleurs du nucléaire dans 3 pays, conclut à une augmentation du risque de leucémie même lors de faibles expositions[16].
-Agents chimiques
-Des agents chimiques dont des médicaments et en particulier les chimiothérapies cytotoxiques sont identifiés comme pourvoyeurs de leucémies.
-L'exposition au benzène est une cause connue de développement de LAM ; il est ainsi classé depuis 1979 comme cancérogène du groupe 1 par le CIRC[17],[18],[19] (cancérogène avéré).
-Le glyphosate est classé comme probablement cancérogène pour l’humain (groupe 2A) mais il n'est pas retrouvé de lien avec les LAM avec un fort niveau de preuve[20] ; bien que les données soient limitées, un lien reste suspecté[21],[22].
-Médicaments identifiés comme leucémogènes[23] :
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Pathogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les hémopathies malignes, dont les LAM font partie, peuvent être globalement caractérisées par deux attributs : la maturation et la prolifération. Dans les LAM, ces deux caractéristiques sont altérées : les blastes ont perdu leur capacité de différentiation en cellules sanguines matures (polynucléaires, monocytes, plaquettes, globule rouge) et la division cellulaire s'effectue sans contrôle avec une prolifération excessive. Cette maturation et prolifération défaillantes sont liées à un défaut dans le cycle cellulaire : généralement certains gènes chargés de contrôler ces fonctions ont subi des mutations qui perturbent le contrôle physiologique de la division des cellules. L'identification de ces altérations servent de base au diagnostic, à la classification et au traitement des LAM.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Leucémie_aigüe_myéloïde</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leuc%C3%A9mie_aig%C3%BCe_my%C3%A9lo%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Pathogénie, causes, facteurs de risque</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Causes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cancers et les leucémies n'ont pas de cause unique connue, mais leur développement est cependant associé à certains facteurs environnementaux et/ou anomalies génétiques. Le Centre international de recherche sur le cancer, une agence de l'OMS, est notamment chargé de l'évaluation et classification des agents physiques, chimiques et biologiques en fonction de leur effet cancérogène. Certains d'entre eux favorisent particulièrement l'apparition de leucémies dont les LAM,. Globalement, toute exposition pouvant altérer, modifier ou dénaturer l'ADN des cellules est un facteur de risque. Cependant, des données épidémiologiques et des études des effets cellulaires sont nécessaires pour évaluer, avec un degré raisonnable de confiance, le risque présenté par une telle exposition.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Leucémie_aigüe_myéloïde</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leuc%C3%A9mie_aig%C3%BCe_my%C3%A9lo%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Pathogénie, causes, facteurs de risque</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Causes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Rayonnements ionisants</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les rayonnements ionisants sont des particules assez énergétiques pour casser les liaisons chimiques entre atomes et donc altérer les molécules. La découverte de la radioactivité et son utilisation croissante au cours du XXe siècle ont fait rapidement apparaître les risques de l'exposition aux radiations pour la santé. Le développement de la radiobiologie a par la suite permis d'établir que radiations provoquent des anomalies au niveau de l'ADN, et augmentent le risque de survenue de cancer et particulièrement de leucémies. Marie Curie et Irène Joliot-Curie sont ainsi décédées de leucémies probablement radio-induites du fait de leur travaux sur la radioactivité,.
+L'étude INWORKS, publiée dans le Lancet Haematology en 2015, portant sur une cohorte d'un peu plus de 300 000 travailleurs du nucléaire dans 3 pays, conclut à une augmentation du risque de leucémie même lors de faibles expositions.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Leucémie_aigüe_myéloïde</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leuc%C3%A9mie_aig%C3%BCe_my%C3%A9lo%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Pathogénie, causes, facteurs de risque</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Causes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Agents chimiques</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des agents chimiques dont des médicaments et en particulier les chimiothérapies cytotoxiques sont identifiés comme pourvoyeurs de leucémies.
+L'exposition au benzène est une cause connue de développement de LAM ; il est ainsi classé depuis 1979 comme cancérogène du groupe 1 par le CIRC (cancérogène avéré).
+Le glyphosate est classé comme probablement cancérogène pour l’humain (groupe 2A) mais il n'est pas retrouvé de lien avec les LAM avec un fort niveau de preuve ; bien que les données soient limitées, un lien reste suspecté,.
+Médicaments identifiés comme leucémogènes :
 les anthracyclines (doxorubicine, daunorubicine, etc.) et apparentés (mitoxantrone) sont des molécules anticancéreuses connues pour être leucémogènes ;
 les agents alkylants (busulfan, etc.) ;
 les antimétabolites (cytarabine) ;
-les épidophylotoxines : étoposide[24].
+les épidophylotoxines : étoposide.
 	Agent chimiques leucémogènes
 			Benzène
 			Doxorubicine
 			Étoposide
-Causes biologiques
-L'apparition d'une leucémie aigüe myéloïde peut faire suite à la transformation (ou acutisation[a]) d'une autre hémopathie comme un syndrome myélodysplasique ou un syndrome myéloprolifératif (leucémie myéloïde chronique, etc.). Diverses maladies congénitales constituent un facteur de risque (trisomie 21, syndrome de Klinefelter, anémie de Fanconi, etc.)[25],[26].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Leucémie_aigüe_myéloïde</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leuc%C3%A9mie_aig%C3%BCe_my%C3%A9lo%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Pathogénie, causes, facteurs de risque</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Causes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Causes biologiques</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'apparition d'une leucémie aigüe myéloïde peut faire suite à la transformation (ou acutisation[a]) d'une autre hémopathie comme un syndrome myélodysplasique ou un syndrome myéloprolifératif (leucémie myéloïde chronique, etc.). Diverses maladies congénitales constituent un facteur de risque (trisomie 21, syndrome de Klinefelter, anémie de Fanconi, etc.),.
 Les antécédents d'infection par certains virus ou bactéries ne semblent pas reliés à un risque accru de LAM.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Leuc%C3%A9mie_aig%C3%BCe_my%C3%A9lo%C3%AFde</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Leuc%C3%A9mie_aig%C3%BCe_my%C3%A9lo%C3%AFde</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Leucémie_aigüe_myéloïde</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leuc%C3%A9mie_aig%C3%BCe_my%C3%A9lo%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Signes cliniques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lorsque les blastes prolifèrent excessivement ils envahissent la moelle osseuse et/ou d'autres organes du corps humain et perturbent leur fonctionnement, causant l'apparition des signes cliniques. Cependant, la présentation clinique est généralement peu spécifique et le diagnostic ne peut être posé sur les seuls symptômes [27],[28],[29],[30].
-Insuffisance médullaire
-L'envahissement de la moelle osseuse par les cellules leucémiques va perturber l'hématopoïèse c'est-à-dire le processus physiologique de création de nouvelles cellules sanguines. Trois types de cellules (ou lignées) sont habituellement produites dans la moelle : les globules rouges (érythrocytes), les globules blancs (notamment les polynucléaires neutrophiles) et les plaquettes (thrombocytes). Le dysfonctionnement de la moelle peut aller de la cytopénie (une seule lignée cellulaire touchée) à l'aplasie médullaire (déficit complet en cellules sanguines des trois lignées). Les symptômes associés dépendent du type de cytopénie. Les cytopénies peuvent être diagnostiquées devant la manifestation de symptômes cliniques ou bien sur un bilan biologique de routine chez un individu asymptomatique.
-Atteinte de la lignée rouge
-Un déficit quantitatif en globules rouges est objectivé par la concentration totale d'hémoglobine dans le sang et est appelé anémie. La tolérance du patient à l'anémie est généralement liée à la vitesse d'apparition : en cas d'installation à bas bruit, l'organisme s'adapte via des systèmes de compensation les symptômes peuvent être absents. Un déclenchement rapide s'accompagnera au contraire d'un retentissement clinique avec notamment dyspnée, asthénie, pâleur.
-Atteinte de la lignée blanche
-La diminution des polynucléaires neutrophiles (PNN) pose le principal problème : ces cellules appartiennent au système immunitaire inné et forment la première ligne de défense contre les infections, principalement bactériennes et fongiques. Selon l'importance du déficit on parlera de neutropénie ou d'agranulocytose. Le sujet neutropénique est extrêmement vulnérables aux infections. L'apparition d'une fièvre dans ce contexte est appelée neutropénie fébrile, et constitue une urgence thérapeutique nécessitant le plus souvent une prise en charge en milieu hospitalier avec administration d'un antibiotique.
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lorsque les blastes prolifèrent excessivement ils envahissent la moelle osseuse et/ou d'autres organes du corps humain et perturbent leur fonctionnement, causant l'apparition des signes cliniques. Cependant, la présentation clinique est généralement peu spécifique et le diagnostic ne peut être posé sur les seuls symptômes .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Leucémie_aigüe_myéloïde</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leuc%C3%A9mie_aig%C3%BCe_my%C3%A9lo%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Signes cliniques</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Insuffisance médullaire</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'envahissement de la moelle osseuse par les cellules leucémiques va perturber l'hématopoïèse c'est-à-dire le processus physiologique de création de nouvelles cellules sanguines. Trois types de cellules (ou lignées) sont habituellement produites dans la moelle : les globules rouges (érythrocytes), les globules blancs (notamment les polynucléaires neutrophiles) et les plaquettes (thrombocytes). Le dysfonctionnement de la moelle peut aller de la cytopénie (une seule lignée cellulaire touchée) à l'aplasie médullaire (déficit complet en cellules sanguines des trois lignées). Les symptômes associés dépendent du type de cytopénie. Les cytopénies peuvent être diagnostiquées devant la manifestation de symptômes cliniques ou bien sur un bilan biologique de routine chez un individu asymptomatique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Leucémie_aigüe_myéloïde</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leuc%C3%A9mie_aig%C3%BCe_my%C3%A9lo%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Signes cliniques</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Insuffisance médullaire</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Atteinte de la lignée rouge</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un déficit quantitatif en globules rouges est objectivé par la concentration totale d'hémoglobine dans le sang et est appelé anémie. La tolérance du patient à l'anémie est généralement liée à la vitesse d'apparition : en cas d'installation à bas bruit, l'organisme s'adapte via des systèmes de compensation les symptômes peuvent être absents. Un déclenchement rapide s'accompagnera au contraire d'un retentissement clinique avec notamment dyspnée, asthénie, pâleur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Leucémie_aigüe_myéloïde</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leuc%C3%A9mie_aig%C3%BCe_my%C3%A9lo%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Signes cliniques</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Insuffisance médullaire</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Atteinte de la lignée blanche</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La diminution des polynucléaires neutrophiles (PNN) pose le principal problème : ces cellules appartiennent au système immunitaire inné et forment la première ligne de défense contre les infections, principalement bactériennes et fongiques. Selon l'importance du déficit on parlera de neutropénie ou d'agranulocytose. Le sujet neutropénique est extrêmement vulnérables aux infections. L'apparition d'une fièvre dans ce contexte est appelée neutropénie fébrile, et constitue une urgence thérapeutique nécessitant le plus souvent une prise en charge en milieu hospitalier avec administration d'un antibiotique.
 On peut parler de leucémie « hyperleucocytaire » (c'est-à-dire avec excès de globules blancs) tout en observant une neutropénie : un pourcentage élevé de leucocytes correspond en réalité aux blastes circulant dans le sang avec, parallèlement, une chute du nombre polynucléaires normaux.
-Atteinte de la lignée plaquettaire
-Le diminution du nombre de plaquettes dans le sang expose à un risque de saignements importants ou spontanés. Cliniquement, des signes cutanés comme un purpura, des pétéchies ou des ecchymoses peuvent traduire l'inefficacité de l'hémostase.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Leucémie_aigüe_myéloïde</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leuc%C3%A9mie_aig%C3%BCe_my%C3%A9lo%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Signes cliniques</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Insuffisance médullaire</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Atteinte de la lignée plaquettaire</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le diminution du nombre de plaquettes dans le sang expose à un risque de saignements importants ou spontanés. Cliniquement, des signes cutanés comme un purpura, des pétéchies ou des ecchymoses peuvent traduire l'inefficacité de l'hémostase.
 Des troubles de la coagulation importants sont en particulier observés lors du stade initial de la leucémie aigüe promyélocytaire. Une consommation des plaquettes et des facteurs de coagulation entraînée par la coagulation intravasculaire disséminée peut aggraver la thrombopénie.
-Syndrome tumoral
-Le syndrome tumoral est lié à la dissémination des blastes hors de la moelle osseuses et de la accumulation dans les organes. Il peut se traduire cliniquement par[31] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Leucémie_aigüe_myéloïde</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leuc%C3%A9mie_aig%C3%BCe_my%C3%A9lo%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Signes cliniques</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Syndrome tumoral</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le syndrome tumoral est lié à la dissémination des blastes hors de la moelle osseuses et de la accumulation dans les organes. Il peut se traduire cliniquement par :
 une augmentation de volume de certains organes : splénomégalie, hépatomégalie ;
 des douleurs articulaires ;
 une atteinte cutanée (sudation nocturne) ;
@@ -630,145 +1028,473 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Leuc%C3%A9mie_aig%C3%BCe_my%C3%A9lo%C3%AFde</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Leuc%C3%A9mie_aig%C3%BCe_my%C3%A9lo%C3%AFde</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Leucémie_aigüe_myéloïde</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leuc%C3%A9mie_aig%C3%BCe_my%C3%A9lo%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'examen clinique du patient permet surtout de dépister des signes d'hémopathie maligne. Le diagnostic repose essentiellement sur un bilan biologique élargi comprenant : hémogramme (NFS), myélogramme ou biopsie ostéomédullaire, immunophénotypage, caryotype, cytogénétique et séquençage de gènes[32].
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>L'examen clinique du patient permet surtout de dépister des signes d'hémopathie maligne. Le diagnostic repose essentiellement sur un bilan biologique élargi comprenant : hémogramme (NFS), myélogramme ou biopsie ostéomédullaire, immunophénotypage, caryotype, cytogénétique et séquençage de gènes.
 L'examen de la moelle osseuse permet de définir l'aspect morphologique des cellules et est la première étape d'orientation du diagnostic. Le diagnostic de leucémie aigüe est posé en présence de plus de 20 % de cellules immatures, les blastes. L'examen de l'expression de divers récepteurs (les CD) par immunophénotypage permet de classifier le stade et la lignée à laquelle les cellules appartiennent.
 Le caryotype et l'étude du génome permettent l'identification d'anomalies chromosomiques (délétions, inversions, translocations) ; 50 à 60 % des LAM présentent des anomalies du caryotype. Il est également recherché des mutations génétiques. Ces analyses sont déterminantes pour évaluer le pronostic et les options thérapeutiques.
 Avant le développement des techniques de phénotypage et de cytogénétique, le diagnostic des LAM s'appuyait majoritairement sur la morphologie cellulaire et était guidé par la classification French-American-British (FAB). Les nouvelles techniques d'étude de l'ADN ont permis de constituer la nouvelle classification OMS qui a remplacé la FAB : sa catégorisation est plus fine et s'appuie sur les anomalies chromosomiques et/ou génétiques.
-En dehors des classifications, on peut aussi distinguer 3 types de LAM[33] :
+En dehors des classifications, on peut aussi distinguer 3 types de LAM :
 les LAM de novo ;
 les LAM secondaires à un syndrome myélodysplasique ou à un syndrome myéloprolifératif ;
-les LAM induites par les cytotoxiques et/ou les radiations.
-Classification
-De par les cellules affectées et les mutations en jeu, les leucémies aigües myéloïdes sont un ensemble disparate qui a fait l'objet de catégorisation. La FAB (French-American-British) est la plus ancienne et a été remplacée par la classification OMS parue en 2008. Bien que la FAB soit obsolète, il est encore habituel de rencontrer les termes diagnostics s'y rapportant (LAM0, LAM3, etc.).
-Organisation Mondiale de la Santé
-La classification OMS des LAM est celle actuellement utilisée pour les diagnostics. Initialement publiée en 2008, elle a été actualisée en 2016 et publiée dans Blood (revue d'hématologie de référence)[34].
-FAB (French-American-British)
-La classification FAB (French-American-British, 1976)[35] est l'ancienne classification, aujourd'hui abandonnée. Elle se base sur la morphologie et la quantité de cellules observées sur le myélogramme.
-Cette classification n'a pas d'impact en termes de pronostic ou de traitement à mettre en œuvre à la différence d'une analyse portant sur l'étude des gènes mutés[36].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Leuc%C3%A9mie_aig%C3%BCe_my%C3%A9lo%C3%AFde</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Leuc%C3%A9mie_aig%C3%BCe_my%C3%A9lo%C3%AFde</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+les LAM induites par les cytotoxiques et/ou les radiations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Leucémie_aigüe_myéloïde</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leuc%C3%A9mie_aig%C3%BCe_my%C3%A9lo%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De par les cellules affectées et les mutations en jeu, les leucémies aigües myéloïdes sont un ensemble disparate qui a fait l'objet de catégorisation. La FAB (French-American-British) est la plus ancienne et a été remplacée par la classification OMS parue en 2008. Bien que la FAB soit obsolète, il est encore habituel de rencontrer les termes diagnostics s'y rapportant (LAM0, LAM3, etc.).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Leucémie_aigüe_myéloïde</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leuc%C3%A9mie_aig%C3%BCe_my%C3%A9lo%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Organisation Mondiale de la Santé</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification OMS des LAM est celle actuellement utilisée pour les diagnostics. Initialement publiée en 2008, elle a été actualisée en 2016 et publiée dans Blood (revue d'hématologie de référence).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Leucémie_aigüe_myéloïde</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leuc%C3%A9mie_aig%C3%BCe_my%C3%A9lo%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>FAB (French-American-British)</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification FAB (French-American-British, 1976) est l'ancienne classification, aujourd'hui abandonnée. Elle se base sur la morphologie et la quantité de cellules observées sur le myélogramme.
+Cette classification n'a pas d'impact en termes de pronostic ou de traitement à mettre en œuvre à la différence d'une analyse portant sur l'étude des gènes mutés.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Leucémie_aigüe_myéloïde</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leuc%C3%A9mie_aig%C3%BCe_my%C3%A9lo%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le traitement curatif des leucémies aigües myéloïdes est la chimiothérapie intensive associée à l'allogreffe de cellules souches hématopoïétiques[37] (à l'exception de la leucémie aigüe (« LA ») promyélocytaire). La prise en charge dépend de nombreux éléments liés à la fois au patient et à la leucémie. L'âge, l'état général, les comorbidités et les souhaits du patient sont notamment des facteurs prépondérants. Le type de leucémie aigüe, les différentes mutations détectées ainsi que les réponses cliniques aux traitements antérieurs déterminent les options de traitement tout au long de la prise en charge. Les décisions thérapeutiques sont prises à l'issues de réunions de concertation pluridisciplinaire (RCP)[38],[39].
-Le traitement classique est une succession de cures de chimiothérapie en plusieurs phases : l'induction, la consolidation puis, si le patient est éligible, l'intensification thérapeutique avec allogreffe de moelle osseuse. La radiothérapie n'est pas un traitement standard des LAM étant donné qu'il n'existe pas de localisation unique de la maladie comme pour une tumeur solide. Elle est cependant utilisée pour prévenir ou traiter une atteinte neuro-méningée, c'est-à-dire lorsque les cellules leucémiques sont retrouvées dans le système nerveux central (cerveau, moelle épinière)[40]. D'autres situations particulières peuvent nécessiter un recours à la radiothérapie (localisation testiculaire, sarcome myéloïde)[41].
-Le traitement de la leucémie aigüe promyélocytaire (LAP) est un cas particulier : le rôle de la chimiothérapie cytotoxique classique est moins prépondérant depuis le développement de l'association de l'acide tout-trans rétinoïque (ATRA) et du trioxyde d'arsenic permettant d'atteindre des taux de rémissions supérieurs à 90 %[42].
-La prise en charge des leucémies et du cancer est associée à de nombreux soins de supports indispensables[43],[44] : prévention et gestion des effets indésirables des chimiothérapies, support transfusionnel pour pallier les cytopénies, suivi nutritionnel, dépistage de symptômes dépressifs, traitement de la douleur et mise en place des soins palliatifs adaptés si nécessaires.
-Induction
-L'induction vise à induire une rémission complète (CR) sur les plans clinique et biologique par la chimiothérapie. Le protocole 3+7, à base de cytarabine et d'anthracycline (daunorubicine ou idarubicine), est classiquement prescrit[45] ; ce traitement provoque chez le patient une aplasie médullaire profonde de trois à quatre semaines, durant lesquelles ce dernier doit bénéficier d'une surveillance rapprochée dans un service d'hématologie spécialisé afin de prévenir les risques hémorragiques et infectieux.
-En alternative à l'induction classique, d'autres molécules peuvent être employées comme la décitabine[46].
-Consolidation
-La suite du traitement dépend dans une large mesure du pronostic de la LAM, de la réponse à la chimiothérapie d'induction (obtention d'une rémission complète), du patient (âge, comorbidités, etc.) et de ses souhaits de traitement. Les traitements de consolidation visent à éliminer les cellules leucémique résiduelles et à ainsi prévenir les récidives[47].
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le traitement curatif des leucémies aigües myéloïdes est la chimiothérapie intensive associée à l'allogreffe de cellules souches hématopoïétiques (à l'exception de la leucémie aigüe (« LA ») promyélocytaire). La prise en charge dépend de nombreux éléments liés à la fois au patient et à la leucémie. L'âge, l'état général, les comorbidités et les souhaits du patient sont notamment des facteurs prépondérants. Le type de leucémie aigüe, les différentes mutations détectées ainsi que les réponses cliniques aux traitements antérieurs déterminent les options de traitement tout au long de la prise en charge. Les décisions thérapeutiques sont prises à l'issues de réunions de concertation pluridisciplinaire (RCP),.
+Le traitement classique est une succession de cures de chimiothérapie en plusieurs phases : l'induction, la consolidation puis, si le patient est éligible, l'intensification thérapeutique avec allogreffe de moelle osseuse. La radiothérapie n'est pas un traitement standard des LAM étant donné qu'il n'existe pas de localisation unique de la maladie comme pour une tumeur solide. Elle est cependant utilisée pour prévenir ou traiter une atteinte neuro-méningée, c'est-à-dire lorsque les cellules leucémiques sont retrouvées dans le système nerveux central (cerveau, moelle épinière). D'autres situations particulières peuvent nécessiter un recours à la radiothérapie (localisation testiculaire, sarcome myéloïde).
+Le traitement de la leucémie aigüe promyélocytaire (LAP) est un cas particulier : le rôle de la chimiothérapie cytotoxique classique est moins prépondérant depuis le développement de l'association de l'acide tout-trans rétinoïque (ATRA) et du trioxyde d'arsenic permettant d'atteindre des taux de rémissions supérieurs à 90 %.
+La prise en charge des leucémies et du cancer est associée à de nombreux soins de supports indispensables, : prévention et gestion des effets indésirables des chimiothérapies, support transfusionnel pour pallier les cytopénies, suivi nutritionnel, dépistage de symptômes dépressifs, traitement de la douleur et mise en place des soins palliatifs adaptés si nécessaires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Leucémie_aigüe_myéloïde</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leuc%C3%A9mie_aig%C3%BCe_my%C3%A9lo%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Induction</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'induction vise à induire une rémission complète (CR) sur les plans clinique et biologique par la chimiothérapie. Le protocole 3+7, à base de cytarabine et d'anthracycline (daunorubicine ou idarubicine), est classiquement prescrit ; ce traitement provoque chez le patient une aplasie médullaire profonde de trois à quatre semaines, durant lesquelles ce dernier doit bénéficier d'une surveillance rapprochée dans un service d'hématologie spécialisé afin de prévenir les risques hémorragiques et infectieux.
+En alternative à l'induction classique, d'autres molécules peuvent être employées comme la décitabine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Leucémie_aigüe_myéloïde</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leuc%C3%A9mie_aig%C3%BCe_my%C3%A9lo%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Consolidation</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La suite du traitement dépend dans une large mesure du pronostic de la LAM, de la réponse à la chimiothérapie d'induction (obtention d'une rémission complète), du patient (âge, comorbidités, etc.) et de ses souhaits de traitement. Les traitements de consolidation visent à éliminer les cellules leucémique résiduelles et à ainsi prévenir les récidives.
 L'allogreffe de moelle osseuse est le traitement préférentiel permettant d'atteindre le taux de rémissions durables le plus élevé mais au prix d'une prise en charge assez lourde.
-Si l'allogreffe est refusée ou inappropriée, la chimiothérapie standard peut être poursuivie, par exemple par cytarabine haute dose, azacitidine ou clofarabine. Les autres options thérapeutiques sont les thérapies ciblées. L'autogreffe de moelle osseuse est très rare[48].
-Allogreffe
-L'allogreffe de moelle osseuse est le seul traitement curatif des LAM. L'objectif est de détruire la moelle osseuse pathologique du patient puis de reconstituer une nouvelle moelle grâce à des cellules souches hématopoïétiques collectées chez un individu sain. La prise en charge thérapeutique est complexe et requiert un service d'hématologie adapté disposant de chambres protégées ainsi que d'autres infrastructures hospitalières (unité de thérapie cellulaire, unité de préparation des chimiothérapies, etc.)[49].
-L'éligibilité à la greffe est évaluée collégialement et décidée en accord avec le patient. Les traitements nécessaires à la greffe possèdent une certaine toxicité et induisent une longue période d'aplasie et d'immunodépression avec un risque de complications et d'infections élevé[50],[51]. L'allogreffe est donc généralement réservée aux sujets « jeunes » (moins de 60 ans) et/ou en très bon état général qui pourront supporter cette prise en charge et tirer un bénéfice à long terme de la greffe[52].
-On peut distinguer sommairement 3 étapes[53].
-Premièrement, le conditionnement du patient consiste en une irradiation corporelle totale[54], l'administration d'immunosuppresseurs et une chimiothérapie intensive. Il vise à éradiquer les cellules leucémiques ainsi que l'induction d'une immunodépression importante permettant de diminuer au maximum un rejet de greffe.
+Si l'allogreffe est refusée ou inappropriée, la chimiothérapie standard peut être poursuivie, par exemple par cytarabine haute dose, azacitidine ou clofarabine. Les autres options thérapeutiques sont les thérapies ciblées. L'autogreffe de moelle osseuse est très rare.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Leucémie_aigüe_myéloïde</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leuc%C3%A9mie_aig%C3%BCe_my%C3%A9lo%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Allogreffe</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'allogreffe de moelle osseuse est le seul traitement curatif des LAM. L'objectif est de détruire la moelle osseuse pathologique du patient puis de reconstituer une nouvelle moelle grâce à des cellules souches hématopoïétiques collectées chez un individu sain. La prise en charge thérapeutique est complexe et requiert un service d'hématologie adapté disposant de chambres protégées ainsi que d'autres infrastructures hospitalières (unité de thérapie cellulaire, unité de préparation des chimiothérapies, etc.).
+L'éligibilité à la greffe est évaluée collégialement et décidée en accord avec le patient. Les traitements nécessaires à la greffe possèdent une certaine toxicité et induisent une longue période d'aplasie et d'immunodépression avec un risque de complications et d'infections élevé,. L'allogreffe est donc généralement réservée aux sujets « jeunes » (moins de 60 ans) et/ou en très bon état général qui pourront supporter cette prise en charge et tirer un bénéfice à long terme de la greffe.
+On peut distinguer sommairement 3 étapes.
+Premièrement, le conditionnement du patient consiste en une irradiation corporelle totale, l'administration d'immunosuppresseurs et une chimiothérapie intensive. Il vise à éradiquer les cellules leucémiques ainsi que l'induction d'une immunodépression importante permettant de diminuer au maximum un rejet de greffe.
 Les cellules souches hétérologues sont ensuite réinjectées. La suite de la prise en charge consiste à gérer l'aplasie médullaire prolongée induite par le conditionnement ainsi que les éventuelles complications et des effets indésirables. À moyen terme, l'hématologue réalise un suivi de la santé du greffon et surveille la disparition effective des cellules leucémiques.
-Au niveau immunologique, l'introduction dans l'organisme de cellules étrangères au patient (dites du « non-soi ») peut déclencher une réaction immunitaire dirigée contre les cellules du patient ou la leucémie : ces effets sont respectivement nommés « greffon vs. hôte » (GvH) et « greffon vs. leucémie » (GvL). Le premier est un effet indésirable plus ou moins grave qui peut se manifester en diverses localisations (digestive, cutanée, etc.) et correspond à une attaque des organes de l'hôte par les cellules greffées ; elle peut être aigüe ou chronique. L'effet GvL est au contraire bénéfique puisque les cellules immunitaires du greffon vont attaquer les cellules leucémiques et exercer ainsi un effet anticancéreux[55].
-Outre la GvH, les complications de l'allogreffe incluent : infections en lien avec l'immunodépression et l'aplasie, augmentation du risque de cancers secondaires, cytopénies durables nécessitant des transfusions[53], maladie veino-occlusive hépatique ainsi que les autres effets indésirables des chimiothérapies.
-Pour les patients fragiles ou âgés ne pouvant supporter une allogreffe standard, il existe des protocoles dits « d'intensité réduite » ou l'étape de conditionnement (chimiothérapie et radiothérapie) comporte des doses diminués : cette solution est un compromis pour préserver le bénéfice de l'allogreffe tout en prenant en compte la moindre tolérance tolérance du patient [56].
-En 2016, en France, un peu plus de 700 allogreffes ont été réalisées pour traiter des LAM[48]. En 201, la société européenne pour la transplantation de sang et de moelle (EBMT) a recensé 6943 allogreffes et 293 autogreffes ayant une leucémie aiguë myéloïde pour indication[57].
-Thérapies ciblées
-Lors du diagnostic, le séquençage du génome des cellules leucémique permet d'identifier les éventuelles mutations présentes. Certaines d'entre elles participent à la prolifération et au défaut de maturation des blastes : elles peuvent, par exemple, mener à la synthèse d'une protéine anormale qui activerait en permanence le cycle cellulaire, entraînant ainsi une division incontrôlée des cellules. L'enrayement de l'action néfaste des gènes mutés ou des protéines altérées constitue donc une cible thérapeutique potentielle : c'est ainsi que certains médicaments agissant spécifiquement sur ces anomalies ont été développés en cancérologie. Ils sont regroupés sous l'appellation thérapies ciblées en opposition à la chimiothérapie cytotoxique classique ; cette désignation inclut également d'autres médicaments au mécanisme d'action différent, par exemple les anticorps monoclonaux ciblant les récepteurs à la surface des cellules (les cluster de différentiation).
-En 2016, une revue de la littérature estime que 50 % à 80 % des cas de LAM possèderaient des mutations délétères[58].
-Parmi les gènes le plus souvent concernés on peut citer FLT3 ou NPM1[59] (les mutations peuvent être concomitantes). Dans le cadre de la prise charge d'un patient, la connaissance des gènes mutés permet non seulement de  catégoriser la leucémie, d'établir un pronostic mais également de prévoir quelles thérapies ciblées pourront être prescrite chez ce malade. Bien qu'il n'existe pas encore une molécule pour contrer chaque gène, quelques-unes ont été développées au cours de la décennie 2010 et ont parfois reçu l'approbation des autorités sanitaires[60].
-Par exemple, il a été identifié que des mutations de l'isocitrate déshydrogénase (IDH), une enzyme impliquée dans le métabolisme énergétique cellulaire, peuvent promouvoir la prolifération des cellules leucémiques. Ainsi, il a été développé des inhibiteurs de l'IDH : l'énasidénib (ciblant l'IDH2) et l'ivosidénib (ciblant l'IDH1)[61],[62]. Diverses autres thérapies ciblées peuvent être prescrites ou font l'objet de recherches cliniques comme le glasdegib, le venetoclax, etc.
-L'utilisation d'hormones androgèniques – qui ne sont pas à proprement parler des thérapies ciblées mais relève plutôt de l'hormonothérapie – a été également étudiée en recherche clinique. La noréthandrolone semble notamment améliorer la survie et la rémission des patients âgés[65],[39].
-Enfin, certaines chimiothérapies, bien qu'ayant un mécanisme classique interférent avec la  synthèse de l'ADN peuvent aussi avoir des propriétés additionnelles ciblées. L'azacitidine possède par exemple une action hypométhylante : elle peut induire un retrait de groupement chimiques méthyles (-CH3) des brins d'ADN et permettre ainsi la ré-expression de certains gènes contrôlant la division cellulaire de la cellule[66].
-Autres situations
-Les formes récidivantes ou réfractaires des LAM sont traitées par des protocoles spécifiques avec généralement de la chimiothérapie (traitement de rattrapage ou de sauvetage)[38],[39].
-Concernant l'immunothérapie, le gemtuzumab ozogamicine, est le seul anticorps monoclonal approuvé dans le traitement des LAM[67]. Les inhibiteurs d'immunocheckpoint (comme l'ipilimumab, le nivolumab) ou les cellules T CAR (lymphocytes modifiés par génie génétique) ne sont pas, en 2020, indiquées dans le traitement des LAM mais sont un sujet d'étude pour la recherche clinique[68],[69],[38].
-Survie
-Le pronostic est généralement exprimé par la survie globale à 5 ans, c'est-à-dire par la proportion de patients toujours en vie 5 années après leur diagnostic, en prenant en compte toutes les causes de décès confondues (qu'elles soient liées à la LAM, ses conséquences, à un autre évènement sans lien comme par ex. un accident de la route). En oncologie, d'autres moyens peuvent être employés pour estimer le pronostic lors de la prise en charge ou dans les essais cliniques : on peut parler en termes de survie sans rechute, survie sans progression ou bien de la réponse au traitement (réponse complète, partielle, etc.).
-Chez l'adulte, la survie à 5 ans est estimée à environ 25%[70],[71] et décroit avec l'âge : elle est de 40% avant 65 ans puis de 5% après[72]. En pédiatrie, la probabilité de survie globale à 5 ans a progressé de 50 % dans les années 90 à environ 60-70 % en 2010 (dans les leucémies aigües lymphoblastiques, elle atteint 90 % en 2010)[73],[74]. Là aussi, les chances de survie des jeunes enfants sont légèrement supérieures à celles des adolescents[72].
-Ces chiffres ne sont pas applicables pour la leucémie aigüe promyélocytaire (ex-LAM 3). Auparavant associée à un pronostic sombre, de nouveaux traitements (association ATRA / ATO) permettent depuis les années 2000 d'obtenir des rémissions à long-terme chez 90% des patients[75].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Leuc%C3%A9mie_aig%C3%BCe_my%C3%A9lo%C3%AFde</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Leuc%C3%A9mie_aig%C3%BCe_my%C3%A9lo%C3%AFde</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+Au niveau immunologique, l'introduction dans l'organisme de cellules étrangères au patient (dites du « non-soi ») peut déclencher une réaction immunitaire dirigée contre les cellules du patient ou la leucémie : ces effets sont respectivement nommés « greffon vs. hôte » (GvH) et « greffon vs. leucémie » (GvL). Le premier est un effet indésirable plus ou moins grave qui peut se manifester en diverses localisations (digestive, cutanée, etc.) et correspond à une attaque des organes de l'hôte par les cellules greffées ; elle peut être aigüe ou chronique. L'effet GvL est au contraire bénéfique puisque les cellules immunitaires du greffon vont attaquer les cellules leucémiques et exercer ainsi un effet anticancéreux.
+Outre la GvH, les complications de l'allogreffe incluent : infections en lien avec l'immunodépression et l'aplasie, augmentation du risque de cancers secondaires, cytopénies durables nécessitant des transfusions, maladie veino-occlusive hépatique ainsi que les autres effets indésirables des chimiothérapies.
+Pour les patients fragiles ou âgés ne pouvant supporter une allogreffe standard, il existe des protocoles dits « d'intensité réduite » ou l'étape de conditionnement (chimiothérapie et radiothérapie) comporte des doses diminués : cette solution est un compromis pour préserver le bénéfice de l'allogreffe tout en prenant en compte la moindre tolérance tolérance du patient .
+En 2016, en France, un peu plus de 700 allogreffes ont été réalisées pour traiter des LAM. En 201, la société européenne pour la transplantation de sang et de moelle (EBMT) a recensé 6943 allogreffes et 293 autogreffes ayant une leucémie aiguë myéloïde pour indication.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Leucémie_aigüe_myéloïde</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leuc%C3%A9mie_aig%C3%BCe_my%C3%A9lo%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Thérapies ciblées</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lors du diagnostic, le séquençage du génome des cellules leucémique permet d'identifier les éventuelles mutations présentes. Certaines d'entre elles participent à la prolifération et au défaut de maturation des blastes : elles peuvent, par exemple, mener à la synthèse d'une protéine anormale qui activerait en permanence le cycle cellulaire, entraînant ainsi une division incontrôlée des cellules. L'enrayement de l'action néfaste des gènes mutés ou des protéines altérées constitue donc une cible thérapeutique potentielle : c'est ainsi que certains médicaments agissant spécifiquement sur ces anomalies ont été développés en cancérologie. Ils sont regroupés sous l'appellation thérapies ciblées en opposition à la chimiothérapie cytotoxique classique ; cette désignation inclut également d'autres médicaments au mécanisme d'action différent, par exemple les anticorps monoclonaux ciblant les récepteurs à la surface des cellules (les cluster de différentiation).
+En 2016, une revue de la littérature estime que 50 % à 80 % des cas de LAM possèderaient des mutations délétères.
+Parmi les gènes le plus souvent concernés on peut citer FLT3 ou NPM1 (les mutations peuvent être concomitantes). Dans le cadre de la prise charge d'un patient, la connaissance des gènes mutés permet non seulement de  catégoriser la leucémie, d'établir un pronostic mais également de prévoir quelles thérapies ciblées pourront être prescrite chez ce malade. Bien qu'il n'existe pas encore une molécule pour contrer chaque gène, quelques-unes ont été développées au cours de la décennie 2010 et ont parfois reçu l'approbation des autorités sanitaires.
+Par exemple, il a été identifié que des mutations de l'isocitrate déshydrogénase (IDH), une enzyme impliquée dans le métabolisme énergétique cellulaire, peuvent promouvoir la prolifération des cellules leucémiques. Ainsi, il a été développé des inhibiteurs de l'IDH : l'énasidénib (ciblant l'IDH2) et l'ivosidénib (ciblant l'IDH1),. Diverses autres thérapies ciblées peuvent être prescrites ou font l'objet de recherches cliniques comme le glasdegib, le venetoclax, etc.
+L'utilisation d'hormones androgèniques – qui ne sont pas à proprement parler des thérapies ciblées mais relève plutôt de l'hormonothérapie – a été également étudiée en recherche clinique. La noréthandrolone semble notamment améliorer la survie et la rémission des patients âgés,.
+Enfin, certaines chimiothérapies, bien qu'ayant un mécanisme classique interférent avec la  synthèse de l'ADN peuvent aussi avoir des propriétés additionnelles ciblées. L'azacitidine possède par exemple une action hypométhylante : elle peut induire un retrait de groupement chimiques méthyles (-CH3) des brins d'ADN et permettre ainsi la ré-expression de certains gènes contrôlant la division cellulaire de la cellule.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Leucémie_aigüe_myéloïde</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leuc%C3%A9mie_aig%C3%BCe_my%C3%A9lo%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Autres situations</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les formes récidivantes ou réfractaires des LAM sont traitées par des protocoles spécifiques avec généralement de la chimiothérapie (traitement de rattrapage ou de sauvetage),.
+Concernant l'immunothérapie, le gemtuzumab ozogamicine, est le seul anticorps monoclonal approuvé dans le traitement des LAM. Les inhibiteurs d'immunocheckpoint (comme l'ipilimumab, le nivolumab) ou les cellules T CAR (lymphocytes modifiés par génie génétique) ne sont pas, en 2020, indiquées dans le traitement des LAM mais sont un sujet d'étude pour la recherche clinique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Leucémie_aigüe_myéloïde</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leuc%C3%A9mie_aig%C3%BCe_my%C3%A9lo%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Survie</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pronostic est généralement exprimé par la survie globale à 5 ans, c'est-à-dire par la proportion de patients toujours en vie 5 années après leur diagnostic, en prenant en compte toutes les causes de décès confondues (qu'elles soient liées à la LAM, ses conséquences, à un autre évènement sans lien comme par ex. un accident de la route). En oncologie, d'autres moyens peuvent être employés pour estimer le pronostic lors de la prise en charge ou dans les essais cliniques : on peut parler en termes de survie sans rechute, survie sans progression ou bien de la réponse au traitement (réponse complète, partielle, etc.).
+Chez l'adulte, la survie à 5 ans est estimée à environ 25%, et décroit avec l'âge : elle est de 40% avant 65 ans puis de 5% après. En pédiatrie, la probabilité de survie globale à 5 ans a progressé de 50 % dans les années 90 à environ 60-70 % en 2010 (dans les leucémies aigües lymphoblastiques, elle atteint 90 % en 2010),. Là aussi, les chances de survie des jeunes enfants sont légèrement supérieures à celles des adolescents.
+Ces chiffres ne sont pas applicables pour la leucémie aigüe promyélocytaire (ex-LAM 3). Auparavant associée à un pronostic sombre, de nouveaux traitements (association ATRA / ATO) permettent depuis les années 2000 d'obtenir des rémissions à long-terme chez 90% des patients.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Leucémie_aigüe_myéloïde</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leuc%C3%A9mie_aig%C3%BCe_my%C3%A9lo%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La première description dans la littérature médicale d'un cas de leucémie remonte à 1827. Alfred Velpeau décrivit le cas d'un fleuriste âgé de 63 ans atteint d'une maladie et présentant fièvre, fatigue, des calculs rénaux et une importante dilatation du foie et de la rate. Il observa que le sang du patient avait une consistance de gruau et postula que cette apparence pouvait être causé par des particules blanches[76].
-En 1845, une série de cas de patients décédés avec des rates dilatées et des « changements de couleur de consistance de leur sang » fut rapporté par le pathologiste J.H. Bennett ; il emploie alors le terme « leucocythémie » pour décrire cette affection[77].
-Le mot « leucémie » fut employé pour la première fois par Rudolf Virchow, médecin pathologiste allemand, en 1856. Il décrivit, grâce à un microscope, un excès de globules blancs chez des individus présentant les symptômes décrits par Velpeau et Benett. Virchow ne connaissant pas l'origine de cette anomalie, il la nomma par un terme purement descriptif leucémie (en grec : sang blanc)[78].
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La première description dans la littérature médicale d'un cas de leucémie remonte à 1827. Alfred Velpeau décrivit le cas d'un fleuriste âgé de 63 ans atteint d'une maladie et présentant fièvre, fatigue, des calculs rénaux et une importante dilatation du foie et de la rate. Il observa que le sang du patient avait une consistance de gruau et postula que cette apparence pouvait être causé par des particules blanches.
+En 1845, une série de cas de patients décédés avec des rates dilatées et des « changements de couleur de consistance de leur sang » fut rapporté par le pathologiste J.H. Bennett ; il emploie alors le terme « leucocythémie » pour décrire cette affection.
+Le mot « leucémie » fut employé pour la première fois par Rudolf Virchow, médecin pathologiste allemand, en 1856. Il décrivit, grâce à un microscope, un excès de globules blancs chez des individus présentant les symptômes décrits par Velpeau et Benett. Virchow ne connaissant pas l'origine de cette anomalie, il la nomma par un terme purement descriptif leucémie (en grec : sang blanc).
 </t>
         </is>
       </c>
